--- a/biology/Médecine/Réservoir_iléo-anal/Réservoir_iléo-anal.xlsx
+++ b/biology/Médecine/Réservoir_iléo-anal/Réservoir_iléo-anal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9servoir_il%C3%A9o-anal</t>
+          <t>Réservoir_iléo-anal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Un réservoir iléo-anal, parfois appelé poche en « J », poche en « S », poche en « W » ou réservoir pelvien, est un réservoir interne, habituellement situé là où se trouve normalement le rectum et dont la fonction est de remplacer ce dernier. Le réservoir est formé à même la partie terminale du petit intestin (iléon), qui est replié sur lui-même et cousu (ou agrafé) pour qu'il tienne dans cette position. Les murs internes sont ensuite retirés de façon à former une poche en forme de « J », de « S » ou de « W ». On pratique ensuite un orifice au bas de la poche et on coud celle-ci à l'anus, qui doit toujours être à sa place.
@@ -503,7 +515,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9servoir_il%C3%A9o-anal</t>
+          <t>Réservoir_iléo-anal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -521,7 +533,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La procédure chirurgicale visant à construire un réservoir iléo-anal fut développée en tant qu'alternative à l'iléostomie où, en l'absence d'un côlon, les excréments sont déversés dans un sac collé à l'abdomen. Le pionnier de ces travaux fut Sir Alan Parks, avec la collaboration du Prof. R.J. Nicholls de l'hôpital Saint-Mark, à Londres, au début des années 1980. Le réservoir était alors appelé « poche de Parks ».
 </t>
